--- a/biology/Zoologie/Erebia_fletcheri/Erebia_fletcheri.xlsx
+++ b/biology/Zoologie/Erebia_fletcheri/Erebia_fletcheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia fletcheri est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,17 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia fletcheri a été nommé par Henry John Elwes en 1899[1].
-Sous-espèces
-Erebia fletcheri fletcheri
-Erebia fletcheri chorymensis Korshunov, 1995
-Erebia fletcheri chajataensis Dubatolov, 1992
-Erebia fletcheri daurica Belik, 2001[1].
-Erebia fletcheri magnifica M. Takáhashi &amp; Nakatani, 2010[2].
-Nom vernaculaire
-Erebia fletcheri se nomme Чернушка Флетчера en russe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia fletcheri a été nommé par Henry John Elwes en 1899.
 </t>
         </is>
       </c>
@@ -547,13 +553,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago d’Erebia fletcheri est un papillon marron foncé d'une envergure de 22 à 24 mm, avec aux antérieures une large bande submarginale cuivrée formée de taches pupillées d'un petit point noir et à l'aile postérieure une ligne de petites tache cuivre pupillées de noir[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Erebia fletcheri fletcheri
+Erebia fletcheri chorymensis Korshunov, 1995
+Erebia fletcheri chajataensis Dubatolov, 1992
+Erebia fletcheri daurica Belik, 2001.
+Erebia fletcheri magnifica M. Takáhashi &amp; Nakatani, 2010.</t>
         </is>
       </c>
     </row>
@@ -578,14 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Période de vol et hivernation
-Il vole en une génération en juin juillet[3].
-Plantes hôtes</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia fletcheri se nomme Чернушка Флетчера en russe.
+</t>
         </is>
       </c>
     </row>
@@ -610,16 +630,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago d’Erebia fletcheri est un papillon marron foncé d'une envergure de 22 à 24 mm, avec aux antérieures une large bande submarginale cuivrée formée de taches pupillées d'un petit point noir et à l'aile postérieure une ligne de petites tache cuivre pupillées de noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juin juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit en Asie, de l'Altaï au nord-est de la Yakoutie[3].
-Biotope
-Il réside dans la steppe.
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit en Asie, de l'Altaï au nord-est de la Yakoutie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la steppe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fletcheri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
